--- a/new_scripts/subsets/half_ngram_chiasm.xlsx
+++ b/new_scripts/subsets/half_ngram_chiasm.xlsx
@@ -472,7 +472,7 @@
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
-        <v>1187</v>
+        <v>4860</v>
       </c>
       <c r="B2" t="n">
         <v>4</v>
@@ -481,41 +481,41 @@
         <v>3.5</v>
       </c>
       <c r="D2" t="n">
-        <v>64.27640677906524</v>
+        <v>91.77188743173656</v>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>(array([-0.00129991,  0.98770337]), np.float64(-0.0006058880980122083))</t>
+          <t>(array([-4.68934094e-04,  1.00000000e+00]), np.float64(0.015512052302570245))</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>Num.6.7
-Num.6.7
-Num.6.8
-Num.6.8</t>
+          <t>Nam.3.16
+Nam.3.16
+Nam.3.17
+Nam.3.17</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>לְ אָבִ֣י ו וּ לְ אִמּ֗ וֹ לְ אָחִי ו֙ וּ לְ אַ֣חֹת֔ וֹ לֹא ־ יִטַּמָּ֥א לָ הֶ֖ם בְּ מֹתָ֑
-ם כִּ֛י נֵ֥זֶר אֱלֹהָ֖י ו עַל ־ רֹאשֽׁ וֹ ׃
-כֹּ֖ל יְמֵ֣י נִזְר֑
-וֹ קָדֹ֥שׁ ה֖וּא לַֽ יהוָֽה ׃</t>
+          <t>הִרְבֵּית֙ רֹֽכְלַ֔יִךְ מִכּוֹכְבֵ֖י הַשָּׁמָ֑יִם
+יֶ֥לֶק פָּשַׁ֖ט וַיָּעֹֽף׃
+מִנְּזָרַ֙יִךְ֙ כָּֽאַרְבֶּ֔ה וְטַפְסְרַ֖יִךְ כְּג֣וֹב גֹּבָ֑י
+הַֽחוֹנִ֤ים בַּגְּדֵרוֹת֙ בְּי֣וֹם קָרָ֔ה שֶׁ֤מֶשׁ זָֽרְחָה֙ וְנוֹדַ֔ד וְלֹֽא־ נוֹדַ֥ע מְקוֹמ֖וֹ אַיָּֽם׃</t>
         </is>
       </c>
       <c r="H2" t="inlineStr">
         <is>
-          <t>for/ father/ his and/ for/ mother/ his for/ brother/ his and/ for/ sister/ his not he will make
-himself unclean for &lt;the&gt;/ them by/ death/ their for [the] Nazirite vow of God/ his [is] on head/ his
-all [the] days of Nazirite vow/
-his [is] holy he to/ Yahweh</t>
+          <t>you have increased traders/ your more than/ [the] stars of
+the/ heavens a locust it strips off and/ it flew away
+courtiers/ your [are] like the/ locust and/ officials/ your [are] like/ a locust of locusts which/ encamp in the/ walls
+on/ a day of coldness [the] sunit rises and/ it flees and/ not it is known place/ its where [are]?/ they</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
-        <v>284</v>
+        <v>4308</v>
       </c>
       <c r="B3" t="n">
         <v>4</v>
@@ -524,41 +524,41 @@
         <v>3.5</v>
       </c>
       <c r="D3" t="n">
-        <v>43.23603616068371</v>
+        <v>93.19202634941281</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>(array([ 0.71304398, -0.00137359]), np.float64(0.023709855505604782))</t>
+          <t>(array([ 1.00000000e+00, -3.49810438e-04]), np.float64(0.008077349192524785))</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>Gen.30.5
-Gen.30.6
-Gen.30.6
-Gen.30.7</t>
+          <t>Lam.5.2
+Lam.5.3
+Lam.5.4
+Lam.5.5</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>וַ תַּ֣הַר בִּלְהָ֔ה וַ תֵּ֥לֶד לְ יַעֲקֹ֖ב בֵּֽן ׃
-וַ תֹּ֤אמֶר רָחֵל֙ דָּנַ֣ נִּי אֱלֹהִ֔ים וְ גַם֙ שָׁמַ֣ע בְּ קֹלִ֔ י וַ יִּתֶּן ־ לִ֖ י בֵּ֑ן
-עַל ־ כֵּ֛ן קָרְאָ֥ה שְׁמ֖ וֹ דָּֽן ׃
-וַ תַּ֣הַר ע֔וֹד וַ תֵּ֕לֶד בִּלְהָ֖ה שִׁפְחַ֣ת רָחֵ֑ל</t>
+          <t>נַחֲלָתֵ֙נוּ֙ נֶֽהֶפְכָ֣ה לְזָרִ֔ים בָּתֵּ֖ינוּ לְנָכְרִֽים׃
+יְתוֹמִ֤ים הָיִ֙ינוּ֙ אֵין וְאֵ֣ין אָ֔ב אִמֹּתֵ֖ינוּ כְּאַלְמָנֽוֹת׃
+מֵימֵ֙ינוּ֙ בְּכֶ֣סֶף שָׁתִ֔ינוּ עֵצֵ֖ינוּ בִּמְחִ֥יר יָבֹֽאוּ׃
+עַ֤ל צַוָּארֵ֙נוּ֙ נִרְדָּ֔פְנוּ יָגַ֖עְנוּ לֹא וְלֹ֥א הֽוּנַ֖ח לָֽנוּ׃</t>
         </is>
       </c>
       <c r="H3" t="inlineStr">
         <is>
-          <t>and/ she conceived Bilhah and/ she bore to/ Jacob a son
-and/ she said Rachel he has vindicated/ me God and/ also he has listened to/ voice/
-my and/ he has given to &lt;the&gt;/ me a son there- -fore she called name/ his Dan
-and/ she conceived again and/ she bore Bilhah</t>
+          <t>inheritance/ our it has been turned over to/ strangers houses/ our to/ foreigners
+fatherless ones we have become and/ there not [is] a father mothers/ our [are] like/ widows
+water/ our for/ money we have drunk wood&lt;s&gt;/ our for/ a price they come
+at neck/ our we have been pursued we have become weary and/ not it has been given rest to/ us</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
-        <v>436</v>
+        <v>3388</v>
       </c>
       <c r="B4" t="n">
         <v>4</v>
@@ -567,41 +567,41 @@
         <v>3.5</v>
       </c>
       <c r="D4" t="n">
-        <v>62.73041195636133</v>
+        <v>71.49034187956252</v>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>(array([-0.00113307,  0.96897753]), np.float64(0.001994632493353743))</t>
+          <t>(array([0.74992629, 0.01717679]), np.float64(0.006326515423833667))</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Gen.42.27
-Gen.42.27
-Gen.42.28
-Gen.42.28</t>
+          <t>Job.32.15
+Job.32.15
+Job.32.16
+Job.32.16</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>וַ יִּפְתַּ֨ח הָ אֶחָ֜ד אֶת ־ שַׂקּ֗ וֹ לָ תֵ֥ת מִסְפּ֛וֹא לַ חֲמֹר֖ וֹ בַּ מָּל֑וֹן
-וַ יַּרְא֙ אֶת ־ כַּסְפּ֔ וֹ וְ הִנֵּה ־ ה֖וּא בְּ פִ֥י אַמְתַּחְתּֽ וֹ ׃
-וַ יֹּ֤אמֶר אֶל ־ אֶחָי ו֙ הוּשַׁ֣ב כַּסְפִּ֔ י וְ גַ֖ם הִנֵּ֣ה בְ אַמְתַּחְתִּ֑
-י וַ יֵּצֵ֣א לִבָּ֗ ם וַ יֶּֽחֶרְד֞וּ אִ֤ישׁ אֶל ־ אָחִי ו֙ לֵ אמֹ֔ר מַה ־ זֹּ֛את עָשָׂ֥ה אֱלֹהִ֖ים לָֽ נוּ ׃</t>
+          <t>חַ֭תּוּ לֹא־ עָ֣נוּ ע֑וֹד
+הֶעְתִּ֖יקוּ מֵהֶ֣ם מִלִּֽים׃
+וְ֭הוֹחַלְתִּי כִּי־ לֹ֣א יְדַבֵּ֑רוּ
+כִּ֥י עָ֝מְד֗וּ לֹא־ עָ֥נוּ עֽוֹד׃</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>and/ he opened the/ one &lt;obj.&gt; sack/ his to/ give fodder to/ donkey/ his at the/ lodging
-place and/ he saw &lt;obj.&gt; silver/ his and/ there! it [was] in/ [the] mouth of sack/ his
-and/ he said to brothers/ his it has been returned silver/ my and/ also here! in/ sack/ my and/ it went
-out heart/ their and/ they trembled each to brother/ his &lt;to&gt;/ saying what? this has he done God to &lt;the&gt;/ us</t>
+          <t>they are dismayed not they have answered again
+they have moved away from &lt;the&gt;/ them words
+and/ will I wait? that not they speak
+that they have stood not they have answered again</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
-        <v>1502</v>
+        <v>616</v>
       </c>
       <c r="B5" t="n">
         <v>4</v>
@@ -610,41 +610,41 @@
         <v>3.5</v>
       </c>
       <c r="D5" t="n">
-        <v>38.23741977679158</v>
+        <v>64.36961088509052</v>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>(array([0.58833686, 0.0063733 ]), np.float64(0.003641022710547004))</t>
+          <t>(array([0.47668212, 0.21406847]), np.float64(0.005727333871727858))</t>
         </is>
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t>Deu.3.18
-Deu.3.19
-Deu.3.19
-Deu.3.20</t>
+          <t>Exo.26.18
+Exo.26.19
+Exo.26.19
+Exo.26.20</t>
         </is>
       </c>
       <c r="G5" t="inlineStr">
         <is>
-          <t>יְהוָ֣ה אֱלֹהֵי כֶ֗ם נָתַ֨ן לָ כֶ֜ם אֶת ־ הָ אָ֤רֶץ הַ זֹּאת֙ לְ רִשְׁתָּ֔ הּ חֲלוּצִ֣ים תַּֽעַבְר֗וּ לִ פְנֵ֛י אֲחֵי כֶ֥ם בְּנֵֽי ־ יִשְׂרָאֵ֖ל כָּל ־ בְּנֵי ־ חָֽיִל ׃
-רַ֠ק נְשֵׁי כֶ֣ם וְ טַפְּ כֶם֮ וּ מִקְנֵ כֶם֒ יָדַ֕עְתִּי כִּֽי ־ מִקְנֶ֥ה רַ֖ב לָ כֶ֑ם
-יֵֽשְׁבוּ֙ בְּ עָ֣רֵי כֶ֔ם אֲשֶׁ֥ר נָתַ֖תִּי לָ כֶֽם ׃
-עַ֠ד אֲשֶׁר ־ יָנִ֨יחַ יְהוָ֥ה ׀ לַֽ אֲחֵי כֶם֮ כָּ כֶם֒ וְ יָרְשׁ֣וּ גַם ־ הֵ֔ם אֶת ־ הָ אָ֕רֶץ אֲשֶׁ֨ר יְהוָ֧ה אֱלֹהֵי כֶ֛ם נֹתֵ֥ן לָ הֶ֖ם בְּ עֵ֣בֶר הַ יַּרְדֵּ֑ן</t>
+          <t>עֶשְׂרִ֣ים קֶ֔רֶשׁ לִפְאַ֖ת נֶ֥גְבָּה תֵימָֽנָה׃
+וְאַרְבָּעִים֙ אַדְנֵי־ כֶ֔סֶף תַּעֲשֶׂ֕ה תַּ֖חַת עֶשְׂרִ֣ים הַקָּ֑רֶשׁ
+שְׁנֵ֨י אֲדָנִ֜ים תַּֽחַת־ הַקֶּ֤רֶשׁ הָאֶחָד֙ לִשְׁתֵּ֣י יְדֹתָ֔יו וּשְׁנֵ֧י אֲדָנִ֛ים תַּֽחַת־ הַקֶּ֥רֶשׁ הָאֶחָ֖ד לִשְׁתֵּ֥י יְדֹתָֽיו׃
+וּלְצֶ֧לַע הַמִּשְׁכָּ֛ן הַשֵּׁנִ֖ית לִפְאַ֣ת צָפ֑וֹן</t>
         </is>
       </c>
       <c r="H5" t="inlineStr">
         <is>
-          <t>this to/ take possession of/ it equipped you will pass over &lt;to&gt;/ before countrymen/ your [the] people of Israel O all [the] sons of strength
-only wives/ your and/ little one[s]/ your and/ livestock/ your I know that livestock much
-[belongs] to/ you they will remain in/ cities/ your which I have given to/ you
-until that he will give rest Yahweh to/ countrymen/ your like/ you and/ they will take possession of also they &lt;obj.&gt; the/ land which Yahweh God/ your</t>
+          <t>twenty frame[s] for/ [the] side of south/ -ward south/ -ward
+and/ forty bases of silver you will make under twenty the/ frame[s] two bases underthe/ frame &lt;the&gt;/
+one for/ [the] two hands/ its and/ two bases under the/ frame &lt;the&gt;/ one for/ [the] twohands/ its
+and/ for/ [the] side of the/ tabernacle &lt;the&gt;/</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
-        <v>4889</v>
+        <v>4823</v>
       </c>
       <c r="B6" t="n">
         <v>4</v>
@@ -653,41 +653,41 @@
         <v>3.5</v>
       </c>
       <c r="D6" t="n">
-        <v>48.20554055262174</v>
+        <v>83.39250804824009</v>
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>(array([-4.42498049e-04,  7.40072137e-01]), np.float64(-0.0004980998738672859))</t>
+          <t>(array([0.85358452, 0.05697549]), np.float64(0.01524564275005802))</t>
         </is>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Jol.1.3
-Jol.1.4
-Jol.1.4
-Jol.1.5</t>
+          <t>Oba.1.17
+Oba.1.18
+Oba.1.18
+Oba.1.19</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>וּ בְנֵי כֶם֙ לִ בְנֵי הֶ֔ם וּ בְנֵי הֶ֖ם לְ ד֥וֹר אַחֵֽר ׃
-יֶ֤תֶר הַ גָּזָם֙ אָכַ֣ל הָֽ אַרְבֶּ֔ה וְ יֶ֥תֶר הָ אַרְבֶּ֖ה אָכַ֣ל הַ יָּ֑לֶק
-וְ יֶ֣תֶר הַ יֶּ֔לֶק אָכַ֖ל הֶ חָסִֽיל ׃
-הָקִ֤יצוּ שִׁכּוֹרִים֙ וּ בְכ֔וּ וְ הֵילִ֖לוּ כָּל ־ שֹׁ֣תֵי יָ֑יִן</t>
+          <t>וְיָֽרְשׁוּ֙ בֵּ֣ית יַֽעֲקֹ֔ב אֵ֖ת מוֹרָֽשֵׁיהֶם׃
+וְהָיָה֩ בֵית־ יַעֲקֹ֨ב אֵ֜שׁ וּבֵ֧ית יוֹסֵ֣ף לֶהָבָ֗ה וּבֵ֤ית עֵשָׂו֙ לְקַ֔שׁ וְדָלְק֥וּ בָהֶ֖ם וַאֲכָל֑וּם
+וְלֹֽא־ יִֽהְיֶ֤ה שָׂרִיד֙ לְבֵ֣ית עֵשָׂ֔ו כִּ֥י יְהוָ֖ה דִּבֵּֽר׃
+וְיָרְשׁ֨וּ הַנֶּ֜גֶב אֶת־ הַ֣ר עֵשָׂ֗ו וְהַשְּׁפֵלָה֙ אֶת־ פְּלִשְׁתִּ֔ים וְיָרְשׁוּ֙ אֶת־ שְׂדֵ֣ה אֶפְרַ֔יִם וְאֵ֖ת שְׂדֵ֣ה שֹׁמְר֑וֹן</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>to/ children/ their and/ children/ their to/ a generation another
-[the] remainder of the/ locust[s] it has eaten the/ locust[s] and/ [the] remainder of the/ locust[s]
-it has eaten the/ locust[s] and/ [the] remainder of the/ locust[s] it has eaten the/ locust[s]
-awake O drunkards and/ weep and/ wail O all drinkers of wine</t>
+          <t>a holy place and/ they will take possession of [the] house Jacob &lt;obj.&gt;possessions/ their
+and/ it will be [the] house of Jacob a fire and/ [the] house of Joseph [will be] a flame and/ [the] house of Esau [will become] &lt;into&gt;/
+stubbleand/ they will burn &lt;in&gt;/ them and/ they will consume/ them and/ not he will belong a survivor to/ [the] house of Esau for Yahwehhe has spoken
+and/ they will take possession of the/ Negev &lt;obj.&gt; [the] mountain of Esau and/ the/ Shephelah &lt;obj.&gt; Philistines and/</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
-        <v>4921</v>
+        <v>1063</v>
       </c>
       <c r="B7" t="n">
         <v>4</v>
@@ -696,41 +696,41 @@
         <v>3.5</v>
       </c>
       <c r="D7" t="n">
-        <v>50.76496624852075</v>
+        <v>75.31204925309942</v>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>(array([-4.76396327e-04,  7.79240579e-01]), np.float64(-0.0005984366238120931))</t>
+          <t>(array([0.30762816, 0.4931972 ]), np.float64(0.0030199896148856986))</t>
         </is>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Oba.1.12
-Oba.1.13
-Oba.1.13
-Oba.1.14</t>
+          <t>Num.7.85
+Num.7.85
+Num.7.86
+Num.7.86</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>ם וְ אַל ־ תַּגְדֵּ֥ל פִּ֖י ךָ בְּ י֥וֹם צָרָֽה ׃
-אַל ־ תָּב֤וֹא בְ שַֽׁעַר ־ עַמִּ י֙ בְּ י֣וֹם אֵידָ֔ ם אַל ־ תֵּ֧רֶא גַם ־ אַתָּ֛ה בְּ רָעָת֖ וֹ בְּ י֣וֹם אֵיד֑
-וֹ וְ אַל ־ תִּשְׁלַ֥חְנָה בְ חֵיל֖ וֹ בְּ י֥וֹם אֵידֽ וֹ ׃
-וְ אַֽל ־ תַּעֲמֹד֙ עַל ־ הַ פֶּ֔רֶק לְ הַכְרִ֖ית אֶת ־ פְּלִיטָ֑י</t>
+          <t>שְׁלֹשִׁ֣ים וּמֵאָ֗ה הַקְּעָרָ֤ה הָֽאַחַת֙ כֶּ֔סֶף וְשִׁבְעִ֖ים הַמִּזְרָ֣ק הָאֶחָ֑ד
+כֹּ֚ל כֶּ֣סֶף הַכֵּלִ֔ים אַלְפַּ֥יִם וְאַרְבַּע־ מֵא֖וֹת בְּשֶׁ֥קֶל הַקֹּֽדֶשׁ׃
+כַּפּ֨וֹת זָהָ֤ב שְׁתֵּים־ עֶשְׂרֵה֙ מְלֵאֹ֣ת קְטֹ֔רֶת עֲשָׂרָ֧ה עֲשָׂרָ֛ה הַכַּ֖ף בְּשֶׁ֣קֶל הַקֹּ֑דֶשׁ
+כָּל־ זְהַ֥ב הַכַּפּ֖וֹת עֶשְׂרִ֥ים וּמֵאָֽה׃</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>to/ [the] people of Judah on/ [the] day perish/ they and/ may not you make big mouth/ your on/ [the] day of trouble
-may not you go in/ [the] gate of people/ my on/ [the] day of disaster/ their may not you look also you on/
-calamity/ his on/ [the] day of disaster/ his and/ may not you stretch out on/ wealth/ his on/ [the] day of disaster/ his
-and/ may not you stand at the/ parting of ways to/ cut off &lt;obj.&gt;</t>
+          <t>[was] thirty and/ one hundred the/ dish &lt;the&gt;/ one silver and/ [was] seventy the/ bowl &lt;the&gt;/ one
+all [the] silver ofthe/ vessels [was] two thousand and/ four hundred&lt;s&gt; by/ [the] shekel of the/ holy place
+[the] pans of gold two [plus] ten full incense [were] ten ten the/ pan by/
+[the] shekel ofthe/ holy place all [the] gold of the/ pans [was] twenty and/ one hundred</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
-        <v>458</v>
+        <v>877</v>
       </c>
       <c r="B8" t="n">
         <v>4</v>
@@ -739,41 +739,41 @@
         <v>3.5</v>
       </c>
       <c r="D8" t="n">
-        <v>44.51765569150706</v>
+        <v>94.76600942254512</v>
       </c>
       <c r="E8" t="inlineStr">
         <is>
-          <t>(array([ 0.68285353, -0.00098619]), np.float64(-0.0010401258164629557))</t>
+          <t>(array([-0.00114772,  1.        ]), np.float64(-0.000627724932842133))</t>
         </is>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Gen.45.5
-Gen.45.6
-Gen.45.6
-Gen.45.7</t>
+          <t>Lev.14.46
+Lev.14.47
+Lev.14.47
+Lev.14.48</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>כִּ֣י לְ מִֽחְיָ֔ה שְׁלָחַ֥ נִי אֱלֹהִ֖ים לִ פְנֵי כֶֽם ׃
-כִּי ־ זֶ֛ה שְׁנָתַ֥יִם הָ רָעָ֖ב בְּ קֶ֣רֶב הָ אָ֑רֶץ
-וְ עוֹד֙ חָמֵ֣שׁ שָׁנִ֔ים אֲשֶׁ֥ר אֵין ־ חָרִ֖ישׁ וְ קָצִּֽיר ׃
-וַ יִּשְׁלָחֵ֤ נִי אֱלֹהִים֙ לִ פְנֵי כֶ֔ם לָ שׂ֥וּם לָ כֶ֛ם שְׁאֵרִ֖ית בָּ אָ֑רֶץ</t>
+          <t>יִטְמָ֖א עַד־ הָעָֽרֶב׃
+וְהַשֹּׁכֵ֣ב בַּבַּ֔יִת יְכַבֵּ֖ס אֶת־ בְּגָדָ֑יו
+וְהָאֹכֵ֣ל בַּבַּ֔יִת יְכַבֵּ֖ס אֶת־ בְּגָדָֽיו׃
+וְאִם־ בֹּ֨א יָבֹ֜א הַכֹּהֵ֗ן וְרָאָה֙ וְ֠הִנֵּה לֹא־ פָשָׂ֤ה הַנֶּ֙גַע֙ בַּבַּ֔יִת אַחֲרֵ֖י הִטֹּ֣חַ אֶת־ הַבָּ֑יִת</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>you sold &lt;obj.&gt;/ me hither for for/ preservation of life he sent/ me God &lt;to&gt;/ before/ you
-for this two years the/ famine [has been] in/ [the] midst of the/
-land and/ still five years when there not [will be] plowing and/ harvest
-and/ he sent/ me God &lt;to&gt;/ before/ you to/ make for/ you a</t>
+          <t>he has shut up &lt;obj.&gt;/ it he will be unclean until the/ evening
+and/ the/ [one who] lies down in the/ house he will wash &lt;obj.&gt; garments/
+his and/ the/ [one who] eats in the/ house he will wash &lt;obj.&gt; garments/ his
+and/ if indeed &lt;come&gt; he will come the/ priest and/ he will see and/ there! not it has spread the/ plague in</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
-        <v>3577</v>
+        <v>3043</v>
       </c>
       <c r="B9" t="n">
         <v>4</v>
@@ -782,41 +782,41 @@
         <v>3.5</v>
       </c>
       <c r="D9" t="n">
-        <v>40.648455193868</v>
+        <v>67.48420341535494</v>
       </c>
       <c r="E9" t="inlineStr">
         <is>
-          <t>(array([5.65617886e-04, 6.23028782e-01]), np.float64(-0.0004441782812260042))</t>
+          <t>(array([ 7.17912867e-01, -6.53595512e-04]), np.float64(0.002545544866324745))</t>
         </is>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Job.36.16
-Job.36.17
-Job.36.17
-Job.36.18</t>
+          <t>2Ch.23.12
+2Ch.23.12
+2Ch.23.13
+2Ch.23.13</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>הָ וְ נַ֥חַת שֻׁ֝לְחָנְ ךָ֗ מָ֣לֵא דָֽשֶׁן ׃
-וְ דִין ־ רָשָׁ֥ע מָלֵ֑אתָ
-דִּ֖ין וּ מִשְׁפָּ֣ט יִתְמֹֽכוּ ׃
-כִּֽי ־ חֵ֭מָה פֶּן ־ יְסִֽיתְ ךָ֣ בְ סָ֑פֶק</t>
+          <t>וַתִּשְׁמַ֣ע עֲתַלְיָ֗הוּ אֶת־ ק֤וֹל הָעָם֙ הָֽרָצִ֔ים וְהַֽמְהַֽלְלִ֖ים אֶת־ הַמֶּ֑לֶךְ
+וַתָּב֥וֹא אֶל־ הָעָ֖ם בֵּ֥ית יְהוָֽה׃
+וַתֵּ֡רֶא וְהִנֵּ֣ה הַמֶּלֶךְ֩ עוֹמֵ֨ד עַֽל־ עַמּוּד֜וֹ בַּמָּב֗וֹא וְהַשָּׂרִ֣ים וְהַחֲצֹצְרוֹת֮ עַל־ הַמֶּלֶךְ֒ וְכָל־ עַ֨ם הָאָ֜רֶץ שָׂמֵ֗חַ וְתוֹקֵ֙עַ֙ בַּחֲצֹ֣צְר֔וֹת וְהַמְשֽׁוֹרֲרִים֙ בִּכְלֵ֣י הַשִּׁ֔יר וּמוֹדִיעִ֖ים לְהַלֵּ֑ל
+וַתִּקְרַ֤ע עֲתַלְיָ֙הוּ֙ אֶת־ בְּגָדֶ֔יהָ וַתֹּ֖אמֶר קֶ֥שֶׁר קָֽשֶׁר׃ס</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>not constraint in place/ its and/ [the] quietness of table/ your it was full fatness
-and/ judgment of [the] wicked you are full
-judgment and/ justice they take hold of [you]
-for rage lest it should entice/ you in/ mockery and/</t>
+          <t>and/ she heard Athaliah &lt;obj.&gt; [the] sound of the/ people who/ were running and/
+who/ were praising &lt;obj.&gt; the/ king and/ she cameto the/ people [the] house of Yahweh
+and/ she saw and/ there! the/ king [was] standing at pillar/ his at the/ entrance and/ the/ officials and/ the/ trumpets [were] withthe/ king and/ all [the] people of the/ land [was]
+joyful and/ [was] giving a blast on/ trumpets and/ the/ singers with/ [the] instruments of &lt;the&gt;/ song&lt;and&gt;/ [were] leading to/ praise and/ she tore Athaliah &lt;obj.&gt; clothes/ her and/ she said treason treason</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
-        <v>3887</v>
+        <v>3463</v>
       </c>
       <c r="B10" t="n">
         <v>4</v>
@@ -825,41 +825,41 @@
         <v>3.5</v>
       </c>
       <c r="D10" t="n">
-        <v>43.80411316922165</v>
+        <v>98.65964434387062</v>
       </c>
       <c r="E10" t="inlineStr">
         <is>
-          <t>(array([-0.00174238,  0.67310255]), np.float64(-0.0008105781736635898))</t>
+          <t>(array([0.06929712, 1.        ]), np.float64(0.014047455273999754))</t>
         </is>
       </c>
       <c r="F10" t="inlineStr">
         <is>
-          <t>Pro.30.10
-Pro.30.10
-Pro.30.11
-Pro.30.11</t>
+          <t>Psa.34.10
+Psa.34.10
+Psa.34.11
+Psa.34.11</t>
         </is>
       </c>
       <c r="G10" t="inlineStr">
         <is>
-          <t>אַל ־ תַּלְשֵׁ֣ן עֶ֭בֶד אֶל ־ אֲדֹנ וֹ אֲדֹנָ֑י
-ו פֶּֽן ־ יְקַלֶּלְ ךָ֥ וְ אָשָֽׁמְתָּ ׃
-דּ֭וֹר אָבִ֣י ו יְקַלֵּ֑ל
-וְ אֶת ־ אִ֝מּ֗ וֹ לֹ֣א יְבָרֵֽךְ ׃</t>
+          <t>יְר֣אוּ אֶת־ יְהוָ֣ה קְדֹשָׁ֑יו
+כִּי־ אֵ֥ין מַ֝חְס֗וֹר לִירֵאָֽיו׃
+כְּ֭פִירִים רָשׁ֣וּ וְרָעֵ֑בוּ
+וְדֹרְשֵׁ֥י יְ֝הוָ֗ה לֹא־ יַחְסְר֥וּ כָל־ טֽוֹב׃</t>
         </is>
       </c>
       <c r="H10" t="inlineStr">
         <is>
-          <t>may not you slander a slave to master&lt;s&gt;/ his lest
-he should curse/ you and/ you will be held guilty
-a generation father/ its it curses
-and/ &lt;obj.&gt; mother/ its not it blesses</t>
+          <t>fear &lt;obj.&gt; Yahweh O holy [ones]/ his
+for not lack [belongs] to/ [those] fearing/ him
+young lions they are in want and/ they are hungry and/
+[those who] seek &lt;of&gt; Yahweh not they lack any good [thing]</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
-        <v>2026</v>
+        <v>4629</v>
       </c>
       <c r="B11" t="n">
         <v>4</v>
@@ -868,41 +868,41 @@
         <v>3.5</v>
       </c>
       <c r="D11" t="n">
-        <v>45.99357473379985</v>
+        <v>90.97297779357099</v>
       </c>
       <c r="E11" t="inlineStr">
         <is>
-          <t>(array([-0.00141165,  0.764531  ]), np.float64(0.028244347863501496))</t>
+          <t>(array([-5.7984994e-04,  9.5926503e-01]), np.float64(-0.0006949364579935668))</t>
         </is>
       </c>
       <c r="F11" t="inlineStr">
         <is>
-          <t>Jdg.16.17
-Jdg.16.18
-Jdg.16.18
-Jdg.16.19</t>
+          <t>Ezk.48.15
+Ezk.48.16
+Ezk.48.16
+Ezk.48.17</t>
         </is>
       </c>
       <c r="G11" t="inlineStr">
         <is>
-          <t>י אִם ־ גֻּלַּ֙חְתִּי֙ וְ סָ֣ר מִמֶּ֣ נִּי כֹחִ֔ י וְ חָלִ֥יתִי וְ הָיִ֖יתִי כְּ כָל ־ הָ אָדָֽם ׃
-וַ תֵּ֣רֶא דְלִילָ֗ה כִּֽי ־ הִגִּ֣יד לָ הּ֮ אֶת ־ כָּל ־ לִבּ וֹ֒ וַ תִּשְׁלַ֡ח וַ תִּקְרָא֩ לְ סַרְנֵ֨י פְלִשְׁתִּ֤ים לֵ אמֹר֙ עֲל֣וּ הַ פַּ֔עַם כִּֽי ־ הִגִּ֥יד לָ הּ לִ֖ י אֶת ־ כָּל ־ לִבּ֑
-וֹ וְ עָל֤וּ אֵלֶ֙י הָ֙ סַרְנֵ֣י פְלִשְׁתִּ֔ים וַ יַּעֲל֥וּ הַ כֶּ֖סֶף בְּ יָדָֽ ם ׃
-וַ תְּיַשְּׁנֵ֙ הוּ֙ עַל ־ בִּרְכֶּ֔י הָ וַ תִּקְרָ֣א לָ אִ֔ישׁ וַ תְּגַלַּ֕ח אֶת ־ שֶׁ֖בַע מַחְלְפ֣וֹת רֹאשׁ֑</t>
+          <t>וְהָיְתָ֥ה הָעִ֖יר בְּתוֹכֹה׃ בְּתוֹכֽוֹ׃
+וְאֵלֶּה֮ מִדּוֹתֶיהָ֒ פְּאַ֣ת צָפ֗וֹן חֲמֵ֤שׁ מֵאוֹת֙ וְאַרְבַּ֣עַת אֲלָפִ֔ים וּפְאַת־ נֶ֕גֶב חֲמֵ֥שׁ חֲמֵשׁ מֵא֖וֹת וְאַרְבַּ֣עַת אֲלָפִ֑ים
+וּמִפְּאַ֣ת קָדִ֗ים חֲמֵ֤שׁ מֵאוֹת֙ וְאַרְבַּ֣עַת אֲלָפִ֔ים וּפְאַת־ יָ֕מָּה חֲמֵ֥שׁ מֵא֖וֹת וְאַרְבַּ֥עַת אֲלָפִֽים׃
+וְהָיָ֣ה מִגְרָשׁ֮ לָעִיר֒ צָפ֙וֹנָה֙ חֲמִשִּׁ֣ים וּמָאתַ֔יִם וְנֶ֖גְבָּה חֲמִשִּׁ֣ים וּמָאתָ֑יִם</t>
         </is>
       </c>
       <c r="H11" t="inlineStr">
         <is>
-          <t>I from/ [the] womb of mother/ my if I was shaved and/ it will depart from/ me strength/ my and/ I will be weak and/ I will be like/ every &lt;the&gt;/ man
-and/ she saw Delilah that he had told to &lt;the&gt;/ her &lt;obj.&gt; all heart/ his and/ she sent and/ she summoned &lt;to&gt;/ [the] rulers of [the] Philistines &lt;to&gt;/ saying come up this/
-time for he has told to &lt;the&gt;/ me &lt;obj.&gt; all heart/ his and/ they came up to/ her [the] rulers of [the] Philistines and/ they brought up the/ silver in/ hand/ their
-and/ she made sleep/ him on knees/ her and/ she summoned &lt;to&gt; the/ man and/ she shaved off &lt;obj.&gt; seven</t>
+          <t>areait for the/ city for/ dwelling place and/ for/ open land and/ it will be the/ city in/ [the] middle of/ it
+and/ these [will be] measurements/ its [the] side of [the] north [will be] five hundred&lt;s&gt; and/ four thousand [cubits] and/ [the] side of [the] south[will be] five [ ] hundred&lt;s&gt; and/
+four thousand [cubits] and/ from/ [the] side of [the] east [will be] five hundred&lt;s&gt; and/ fourthousand [cubits] and/ [the] side of west/ -ward [will be] five hundred&lt;s&gt; and/ four thousand [cubits]
+and/ it will belong open land to the/ city north/ -ward fifty and/ two hundred [cubits] and/ south/ -ward</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
-        <v>836</v>
+        <v>2700</v>
       </c>
       <c r="B12" t="n">
         <v>4</v>
@@ -911,41 +911,41 @@
         <v>3.5</v>
       </c>
       <c r="D12" t="n">
-        <v>43.62703677469221</v>
+        <v>72.31784257341261</v>
       </c>
       <c r="E12" t="inlineStr">
         <is>
-          <t>(array([-0.00219197,  0.67011698]), np.float64(-0.0011674356159394605))</t>
+          <t>(array([-2.76675510e-04,  7.62216177e-01]), np.float64(-0.0006221068311280664))</t>
         </is>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Exo.38.30
-Exo.38.31
-Exo.38.31
-Exo.39.1</t>
+          <t>2Ki.17.38
+2Ki.17.38
+2Ki.17.39
+2Ki.17.39</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>וֹ וְ אֵ֖ת כָּל ־ כְּלֵ֥י הַ מִּזְבֵּֽחַ ׃
-וְ אֶת ־ אַדְנֵ֤י הֶֽ חָצֵר֙ סָבִ֔יב וְ אֶת ־ אַדְנֵ֖י שַׁ֣עַר הֶ חָצֵ֑ר
-וְ אֵ֨ת כָּל ־ יִתְדֹ֧ת הַ מִּשְׁכָּ֛ן וְ אֶת ־ כָּל ־ יִתְדֹ֥ת הֶ חָצֵ֖ר סָבִֽיב ׃
-וּ מִן ־ הַ תְּכֵ֤לֶת וְ הָֽ אַרְגָּמָן֙ וְ תוֹלַ֣עַת הַ שָּׁנִ֔י עָשׂ֥וּ בִגְדֵי ־ שְׂרָ֖ד לְ שָׁרֵ֣ת בַּ קֹּ֑דֶשׁ</t>
+          <t>וְהַבְּרִ֛ית אֲשֶׁר־ כָּרַ֥תִּי אִתְּכֶ֖ם לֹ֣א תִשְׁכָּ֑חוּ
+וְלֹ֥א תִֽירְא֖וּ אֱלֹהִ֥ים אֲחֵרִֽים׃
+כִּ֛י אִֽם־ אֶת־ יְהוָ֥ה אֱלֹהֵיכֶ֖ם תִּירָ֑אוּ
+וְהוּא֙ יַצִּ֣יל אֶתְכֶ֔ם מִיַּ֖ד כָּל־ אֹיְבֵיכֶֽם׃</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>&lt;the&gt;/ bronze and/ &lt;obj.&gt; [the] grating of &lt;the&gt;/ bronze which [belonged] to &lt;the&gt;/ it and/ &lt;obj.&gt; all [the] articles of the/ altar
-and/ &lt;obj.&gt; [the] bases of the/ courtyard all around and/ &lt;obj.&gt; [the] bases of [the] gate of the/ courtyard
-and/ &lt;obj.&gt; all [the] tent pegs of the/ tabernacle and/ &lt;obj.&gt; all [the] tent pegs of the/ courtyard all around
-and/ from the/ violet stuff and/ the/ purple and/ [the] scarlet stuff of the/ scarlet they made garments of woven material to/ serve in</t>
+          <t>and/ the/ covenant which I made with/ you not
+you must forget and/ not you must fear gods other
+that except &lt;obj.&gt; Yahweh God/ your you will fear and/ he
+he will deliver &lt;obj.&gt;/ you from/ [the] hand ofall enemies/ your</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
-        <v>2795</v>
+        <v>4064</v>
       </c>
       <c r="B13" t="n">
         <v>4</v>
@@ -954,41 +954,41 @@
         <v>3.5</v>
       </c>
       <c r="D13" t="n">
-        <v>42.31791102302333</v>
+        <v>58.6597085835957</v>
       </c>
       <c r="E13" t="inlineStr">
         <is>
-          <t>(array([ 6.60092542e-01, -5.44522695e-04]), np.float64(0.004703892569515311))</t>
+          <t>(array([-3.72636707e-04,  6.18986889e-01]), np.float64(-0.00020891330210814907))</t>
         </is>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>2Ki.4.29
-2Ki.4.30
-2Ki.4.30
-2Ki.4.31</t>
+          <t>Jer.10.19
+Jer.10.20
+Jer.10.20
+Jer.10.21</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>וְ שַׂמְתָּ֥ מִשְׁעַנְתִּ֖ י עַל ־ פְּנֵ֥י הַ נָּֽעַר ׃
-וַ תֹּ֙אמֶר֙ אֵ֣ם הַ נַּ֔עַר חַי ־ יְהוָ֥ה וְ חֵֽי ־ נַפְשְׁ ךָ֖ אִם ־ אֶעֶזְבֶ֑
-ךָּ וַ יָּ֖קָם וַ יֵּ֥לֶךְ אַחֲרֶֽי הָ ׃
-וְ גֵחֲזִ֞י עָבַ֣ר לִ פְנֵי הֶ֗ם וַ יָּ֤שֶׂם אֶת ־ הַ מִּשְׁעֶ֙נֶת֙ עַל ־ פְּנֵ֣י הַ נַּ֔עַר וְ אֵ֥ין ק֖וֹל וְ אֵ֣ין קָ֑שֶׁב</t>
+          <t>וַאֲנִ֣י אָמַ֔רְתִּי אַ֛ךְ זֶ֥ה חֳלִ֖י וְאֶשָּׂאֶֽנּוּ׃
+אָהֳלִ֣י שֻׁדָּ֔ד וְכָל־ מֵיתָרַ֖י נִתָּ֑קוּ
+בָּנַ֤י יְצָאֻ֙נִי֙ וְאֵינָ֔ם אֵין־ נֹטֶ֥ה עוֹד֙ אָהֳלִ֔י וּמֵקִ֖ים יְרִיעוֹתָֽי׃
+כִּ֤י נִבְעֲרוּ֙ הָֽרֹעִ֔ים וְאֶת־ יְהוָ֖ה לֹ֣א דָרָ֑שׁוּ</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>bless/ him and/ if he will bless/ you anyone not you must answer/ him and/ you will put staff/ my on [the] face of the/ lad
-and/ she said [the] mother of the/ lad [by] [the] life of Yahweh and/ [by] [the]
-life of self/ your if I will leave/ you and/ he arose and/ he went after/ her
-and/ Gehazi he passed on &lt;to&gt;/ before/ them and/ he put &lt;obj.&gt; the/ staff on [the] face of the/ lad and/ there not [was] a</t>
+          <t>I I said surely this[is] a sickness and/ I will endure/ it
+tent/ my it has been devastated and/ all tent cords/ my they have been snapped children/ my they have gone out
+from/ me and/ there not [are]/ they there not [is one who] pitchesagain tent/ my and/ [one who] raises tent curtains/ my
+for they have behaved stupidly the/ shepherds and/ &lt;obj.&gt; Yahweh not they have</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
-        <v>304</v>
+        <v>1920</v>
       </c>
       <c r="B14" t="n">
         <v>4</v>
@@ -997,41 +997,41 @@
         <v>3.5</v>
       </c>
       <c r="D14" t="n">
-        <v>47.71835085602242</v>
+        <v>58.04291501960349</v>
       </c>
       <c r="E14" t="inlineStr">
         <is>
-          <t>(array([ 7.32854729e-01, -2.16368071e-04]), np.float64(-0.00024998654171204393))</t>
+          <t>(array([-0.02344116,  0.73980894]), np.float64(0.05192275290108306))</t>
         </is>
       </c>
       <c r="F14" t="inlineStr">
         <is>
-          <t>Gen.31.10
-Gen.31.11
-Gen.31.11
-Gen.31.12</t>
+          <t>1Sa.5.9
+1Sa.5.10
+1Sa.5.10
+1Sa.5.11</t>
         </is>
       </c>
       <c r="G14" t="inlineStr">
         <is>
-          <t>וְ הִנֵּ֤ה הָֽ עַתֻּדִים֙ הָ עֹלִ֣ים עַל ־ הַ צֹּ֔אן עֲקֻדִּ֥ים נְקֻדִּ֖ים וּ בְרֻדִּֽים ׃
-וַ יֹּ֨אמֶר אֵלַ֜ י מַלְאַ֧ךְ הָ אֱלֹהִ֛ים בַּ חֲל֖וֹם יַֽעֲקֹ֑ב
-וָ אֹמַ֖ר הִנֵּֽנִ י ׃
-וַ יֹּ֗אמֶר שָׂא ־ נָ֨א עֵינֶ֤י ךָ וּ רְאֵה֙ כָּל ־ הָֽ עַתֻּדִים֙ הָ עֹלִ֣ים עַל ־ הַ צֹּ֔אן עֲקֻדִּ֥ים נְקֻדִּ֖ים וּ בְרֻדִּ֑ים</t>
+          <t>וַיִּשָּׂתְר֥וּ לָהֶ֖ם עֳפָלִים׃ טְחֹרִֽים׃
+וַֽיְשַׁלְּח֛וּ אֶת־ אֲר֥וֹן הָאֱלֹהִ֖ים עֶקְר֑וֹן
+וַיְהִ֗י כְּב֨וֹא אֲר֤וֹן הָאֱלֹהִים֙ עֶקְר֔וֹן וַיִּזְעֲק֨וּ הָֽעֶקְרֹנִ֜ים לֵאמֹ֗ר הֵסַ֤בּוּ אֵלַי֙ אֶת־ אֲרוֹן֙ אֱלֹהֵ֣י יִשְׂרָאֵ֔ל לַהֲמִיתֵ֖נִי וְאֶת־ עַמִּֽי׃
+וַיִּשְׁלְח֨וּ וַיַּאַסְפ֜וּ אֶת־ כָּל־ סַרְנֵ֣י פְלִשְׁתִּ֗ים וַיֹּֽאמְרוּ֙ שַׁלְּח֞וּ אֶת־ אֲר֨וֹן אֱלֹהֵ֤י יִשְׂרָאֵל֙ וְיָשֹׁ֣ב לִמְקֹמ֔וֹ וְלֹֽא־ יָמִ֥ית אֹתִ֖י וְאֶת־ עַמִּ֑י</t>
         </is>
       </c>
       <c r="H14" t="inlineStr">
         <is>
-          <t>a dream and/ there! the/ male goats which/ were going up on the/ flock [were] striped speckled and/ mottled
-and/ he said to/ me [the] angel of &lt;the&gt;/ God
-in/ a dream O Jacob and/ I said here [am]/ I
-and/ he said lift up please eyes/ your and/ see all the/ male goats which/ are going up on</t>
+          <t>and/ he struck &lt;obj.&gt; [the] men of the/ city from/ young and/ unto [the] old and/ they broke out to &lt;the&gt;/ themtumors
+and/ they sent &lt;obj.&gt; [the] ark of &lt;the&gt;/ God Ekron and/ it was when/ went [the] ark of &lt;the&gt;/ God Ekronand/ they cried out
+the/ Ekronites &lt;to&gt;/ saying they have brought round to/ me &lt;obj.&gt; [the] ark of [the] God of Israel to/ kill/ meand/ &lt;obj.&gt; people/ my
+and/ they sent and/ they gathered &lt;obj.&gt; all [the] rulers of [the] Philistines and/ they said send away &lt;obj.&gt; [the] ark of[the] God of Israel so/ may it return to/ own</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
-        <v>3482</v>
+        <v>3644</v>
       </c>
       <c r="B15" t="n">
         <v>4</v>
@@ -1040,87 +1040,84 @@
         <v>3.5</v>
       </c>
       <c r="D15" t="n">
-        <v>49.2559022890046</v>
+        <v>94.72536063294137</v>
       </c>
       <c r="E15" t="inlineStr">
         <is>
-          <t>(array([0.83373789, 0.3793748 ]), np.float64(0.22817204197054375))</t>
+          <t>(array([1.00000000e+00, 2.05161983e-04]), np.float64(0.00026322322615901506))</t>
         </is>
       </c>
       <c r="F15" t="inlineStr">
         <is>
-          <t>Est.6.6
-Est.6.6
-Est.6.7
-Est.6.7</t>
+          <t>Psa.119.93
+Psa.119.93
+Psa.119.94
+Psa.119.94</t>
         </is>
       </c>
       <c r="G15" t="inlineStr">
         <is>
-          <t>וַ יָּבוֹא֮ הָמָן֒ וַ יֹּ֤אמֶר ל וֹ֙ הַ מֶּ֔לֶךְ מַה ־ לַ עֲשׂ֕וֹת בָּ אִ֕ישׁ אֲשֶׁ֥ר הַ מֶּ֖לֶךְ חָפֵ֣ץ בִּ יקָר֑
-וֹ וַ יֹּ֤אמֶר הָמָן֙ בְּ לִבּ֔ וֹ לְ מִ֞י יַחְפֹּ֥ץ הַ מֶּ֛לֶךְ לַ עֲשׂ֥וֹת יְקָ֖ר יוֹתֵ֥ר מִמֶּֽ נִּי ׃
-וַ יֹּ֥אמֶר הָמָ֖ן אֶל ־ הַ מֶּ֑לֶךְ
-אִ֕ישׁ אֲשֶׁ֥ר הַ מֶּ֖לֶךְ חָפֵ֥ץ בִּ יקָרֽ וֹ ׃</t>
+          <t>לְ֭עוֹלָם לֹא־ אֶשְׁכַּ֣ח פִּקּוּדֶ֑יךָ
+כִּ֥י בָ֝֗ם חִיִּיתָֽנִי׃
+לְֽךָ־ אֲ֭נִי הוֹשִׁיעֵ֑נִי
+כִּ֖י פִקּוּדֶ֣יךָ דָרָֽשְׁתִּי׃</t>
         </is>
       </c>
       <c r="H15" t="inlineStr">
         <is>
-          <t>and/ he came Haman and/ he said to/ him the/ king what? [is] to/ do for the/ man whom the/ king he delights
-in/ honor/ his and/ he said Haman in/ heart/ his to/ whom? will he delight the/ king to/ do honor excess more than/ me
-and/ he said Haman to the/ king a
-man whom the/ king he delights in/ honor/ his</t>
+          <t>for/ ever not I will forget precepts/ your
+for by/ them you have preserved alive/ me
+[belong] to/ you I save/ me
+for precepts/ your I have sought</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
-        <v>5148</v>
+        <v>3904</v>
       </c>
       <c r="B16" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C16" t="n">
         <v>3.5</v>
       </c>
       <c r="D16" t="n">
-        <v>55.56740917228733</v>
+        <v>94.78473498652724</v>
       </c>
       <c r="E16" t="inlineStr">
         <is>
-          <t>(array([1.        , 0.78532669]), np.float64(0.06640654632616665))</t>
+          <t>(array([-2.99720284e-04,  1.00000000e+00]), np.float64(-0.0003025443931532479))</t>
         </is>
       </c>
       <c r="F16" t="inlineStr">
         <is>
-          <t>Gen.11.19
-Gen.11.20
-Gen.11.20
-Gen.11.21
-Gen.11.21</t>
+          <t>Isa.29.2
+Isa.29.3
+Isa.29.3
+Isa.29.4</t>
         </is>
       </c>
       <c r="G16" t="inlineStr">
         <is>
-          <t>וַ יּ֥וֹלֶד בָּנִ֖ים וּ בָנֽוֹת ׃ ס
-וַ יְחִ֣י רְע֔וּ שְׁתַּ֥יִם וּ שְׁלֹשִׁ֖ים שָׁנָ֑ה
-וַ יּ֖וֹלֶד אֶת ־ שְׂרֽוּג ׃
-וַ יְחִ֣י רְע֗וּ אַחֲרֵי֙ הוֹלִיד֣ וֹ אֶת ־ שְׂר֔וּג שֶׁ֥בַע שָׁנִ֖ים וּ מָאתַ֣יִם שָׁנָ֑ה
-וַ יּ֥וֹלֶד בָּנִ֖ים וּ בָנֽוֹת ׃ ס</t>
+          <t>וְהָיְתָ֤ה תַֽאֲנִיָּה֙ וַֽאֲנִיָּ֔ה וְהָ֥יְתָה לִּ֖י כַּאֲרִיאֵֽל׃
+וְחָנִ֥יתִי כַדּ֖וּר עָלָ֑יִךְ
+וְצַרְתִּ֤י עָלַ֙יִךְ֙ מֻצָּ֔ב וַהֲקִֽימֹתִ֥י עָלַ֖יִךְ מְצֻרֹֽת׃
+וְשָׁפַלְתְּ֙ מֵאֶ֣רֶץ תְּדַבֵּ֔רִי וּמֵֽעָפָ֖ר תִּשַּׁ֣ח אִמְרָתֵ֑ךְ</t>
         </is>
       </c>
       <c r="H16" t="inlineStr">
         <is>
-          <t>years and/ two hundred year[s] and/ he fathered sons and/ daughters
-and/ he lived Reu two and/
-thirty year[s] and/ he fathered &lt;obj.&gt; Serug
-and/ he lived Reu after fathered/ he &lt;obj.&gt; Serug seven
-years and/ two hundred year[s] and/ he fathered sons and/ daughters</t>
+          <t>mourning and/ lamentation and/ it will be to/ me like/ Ariel
+and/ I will encamp like &lt;the&gt;/ circle on/ you and/ I will
+lay siege on/ you siege-works and/ I will raise on/ you fortifications
+and/ you will become low from/ [the] ground you will speak and/ from/ [the] dust it will be humbled utterance/</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
-        <v>4454</v>
+        <v>4796</v>
       </c>
       <c r="B17" t="n">
         <v>4</v>
@@ -1129,41 +1126,41 @@
         <v>3.5</v>
       </c>
       <c r="D17" t="n">
-        <v>51.91496112320296</v>
+        <v>86.46072474424989</v>
       </c>
       <c r="E17" t="inlineStr">
         <is>
-          <t>(array([ 8.07496525e-01, -7.16404120e-04]), np.float64(0.004572531401149549))</t>
+          <t>(array([ 0.91207727, -0.00096045]), np.float64(-0.0006673454008176982))</t>
         </is>
       </c>
       <c r="F17" t="inlineStr">
         <is>
-          <t>Ezk.11.10
-Ezk.11.10
-Ezk.11.11
-Ezk.11.11</t>
+          <t>Amo.1.12
+Amo.1.13
+Amo.1.13
+Amo.1.14</t>
         </is>
       </c>
       <c r="G17" t="inlineStr">
         <is>
-          <t>בַּ חֶ֣רֶב תִּפֹּ֔לוּ עַל ־ גְּב֥וּל יִשְׂרָאֵ֖ל אֶשְׁפּ֣וֹט אֶתְ כֶ֑ם
-וִֽ ידַעְתֶּ֖ם כִּֽי ־ אֲנִ֥י יְהוָֽה ׃
-הִ֗יא לֹֽא ־ תִהְיֶ֤ה לָ כֶם֙ לְ סִ֔יר וְ אַתֶּ֛ם תִּהְי֥וּ בְ תוֹכָ֖ הּ לְ בָשָׂ֑ר
-אֶל ־ גְּב֥וּל יִשְׂרָאֵ֖ל אֶשְׁפֹּ֥ט אֶתְ כֶֽם ׃</t>
+          <t>וְאָכְלָ֖ה אַרְמְנ֥וֹת בָּצְרָֽה׃פ
+כֹּ֚ה אָמַ֣ר יְהוָ֔ה עַל־ שְׁלֹשָׁה֙ פִּשְׁעֵ֣י בְנֵֽי־ עַמּ֔וֹן וְעַל־ אַרְבָּעָ֖ה לֹ֣א אֲשִׁיבֶ֑נּוּ
+עַל־ בִּקְעָם֙ הָר֣וֹת הַגִּלְעָ֔ד לְמַ֖עַן הַרְחִ֥יב אֶת־ גְּבוּלָֽם׃
+וְהִצַּ֤תִּי אֵשׁ֙ בְּחוֹמַ֣ת רַבָּ֔ה וְאָכְלָ֖ה אַרְמְנוֹתֶ֑יהָ</t>
         </is>
       </c>
       <c r="H17" t="inlineStr">
         <is>
-          <t>by the/ sword you will fall on [the] territory of Israel I
-will judge &lt;obj.&gt;/ you and/ you will know that I [am] Yahweh
-it not it will become for/ you &lt;into&gt;/ a pot and/ you you will become in/
-[the] midst of/ it &lt;into&gt;/ meat to [the] border of Israel I will judge &lt;obj.&gt;/ you</t>
+          <t>Teman and/ it will consume [the] fortresses of Bozrah
+thus he says Yahweh on three &lt;the&gt; transgressions of [the] people of Ammon and/ on fournot I will
+revoke/ it because ripped open/ they [the] pregnant [women] of &lt;the&gt;/ Gilead so as to enlarge &lt;obj.&gt; territory/ their
+and/ I will kindle a fire on/ [the] wall of Rabbah and/ it will consume fortresses/ its</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
-        <v>1218</v>
+        <v>1646</v>
       </c>
       <c r="B18" t="n">
         <v>4</v>
@@ -1172,41 +1169,41 @@
         <v>3.5</v>
       </c>
       <c r="D18" t="n">
-        <v>62.98866309501528</v>
+        <v>85.83258272642171</v>
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>(array([0.37339548, 0.76460444]), np.float64(0.08508785933467378))</t>
+          <t>(array([ 9.54141905e-01, -5.95499415e-04]), np.float64(0.023862235449710667))</t>
         </is>
       </c>
       <c r="F18" t="inlineStr">
         <is>
-          <t>Num.10.5
-Num.10.5
-Num.10.6
-Num.10.6</t>
+          <t>Jos.22.9
+Jos.22.9
+Jos.22.10
+Jos.22.10</t>
         </is>
       </c>
       <c r="G18" t="inlineStr">
         <is>
-          <t>וּ תְקַעְתֶּ֖ם תְּרוּעָ֑ה
-וְ נָֽסְעוּ֙ הַֽ מַּחֲנ֔וֹת הַ חֹנִ֖ים קֵֽדְמָ ה ׃
-וּ תְקַעְתֶּ֤ם תְּרוּעָה֙ שֵׁנִ֔ית וְ נָֽסְעוּ֙ הַֽ מַּחֲנ֔וֹת הַ חֹנִ֖ים תֵּימָ֑נָ
-ה תְּרוּעָ֥ה יִתְקְע֖וּ לְ מַסְעֵי הֶֽם ׃</t>
+          <t>וַיָּשֻׁ֣בוּ וַיֵּלְכ֡וּ בְּנֵי־ רְאוּבֵ֨ן וּבְנֵי־ גָ֜ד וַחֲצִ֣י׀ שֵׁ֣בֶט הַֽמְנַשֶּׁ֗ה מֵאֵת֙ בְּנֵ֣י יִשְׂרָאֵ֔ל מִשִּׁלֹ֖ה אֲשֶׁ֣ר בְּאֶֽרֶץ־ כְּנָ֑עַן
+לָלֶ֜כֶת אֶל־ אֶ֣רֶץ הַגִּלְעָ֗ד אֶל־ אֶ֤רֶץ אֲחֻזָּתָם֙ אֲשֶׁ֣ר נֹֽאחֲזוּ־ בָ֔הּ עַל־ פִּ֥י יְהוָ֖ה בְּיַד־ מֹשֶֽׁה׃
+וַיָּבֹ֙אוּ֙ אֶל־ גְּלִיל֣וֹת הַיַּרְדֵּ֔ן אֲשֶׁ֖ר בְּאֶ֣רֶץ כְּנָ֑עַן
+וַיִּבְנ֣וּ בְנֵי־ רְאוּבֵ֣ן וּבְנֵי־ גָ֡ד וַחֲצִ֣י שֵׁבֶט֩ הַֽמְנַשֶּׁ֨ה שָׁ֤ם מִזְבֵּ֙חַ֙ עַל־ הַיַּרְדֵּ֔ן מִזְבֵּ֥חַ גָּד֖וֹל לְמַרְאֶֽה׃</t>
         </is>
       </c>
       <c r="H18" t="inlineStr">
         <is>
-          <t>and/ you will give a blast an alarm and/
-they will set out the/ camps which/ encamp east/ -ward
-and/ you will give a blast an alarm second and/ they will set out the/
-camps which/ encamp south/ -ward an alarm they will give a blast for/ settings out/ their</t>
+          <t>and/ they returned and/ they went [the] descendants of Reuben and/ [the] descendants of Gad and/ [the] half of [the] tribe of &lt;the&gt;/ Manasseh from/ with[the] people of Israel from/ Shiloh which [is]
+in/ [the] land of Canaan to/ go to [the] land of &lt;the&gt;/ Gileadto [the] land of possession/ their which they had possessions in &lt;the&gt;/ it on [the] mouth of Yahweh by/ [the] hand ofMoses
+and/ they came to Geliloth of the/ Jordan which [is] in/ [the] land of Canaan and/ they built [the] descendants of Reubenand/
+[the] descendants of Gad and/ [the] half of [the] tribe of &lt;the&gt;/ Manasseh there an altar at the/ Jordan an altarlarge of/ appearance</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
-        <v>2981</v>
+        <v>81</v>
       </c>
       <c r="B19" t="n">
         <v>4</v>
@@ -1215,41 +1212,41 @@
         <v>3.5</v>
       </c>
       <c r="D19" t="n">
-        <v>41.37578105699384</v>
+        <v>81.41600381111515</v>
       </c>
       <c r="E19" t="inlineStr">
         <is>
-          <t>(array([-0.00071472,  0.63535059]), np.float64(-0.0005124919924965887))</t>
+          <t>(array([-0.00094441,  0.85864244]), np.float64(-0.0007550698987165427))</t>
         </is>
       </c>
       <c r="F19" t="inlineStr">
         <is>
-          <t>1Ch.2.16
-1Ch.2.17
-1Ch.2.17
-1Ch.2.18</t>
+          <t>Gen.10.11
+Gen.10.11
+Gen.10.12
+Gen.10.12</t>
         </is>
       </c>
       <c r="G19" t="inlineStr">
         <is>
-          <t>וּ בְנֵ֣י צְרוּיָ֗ה אַבְשַׁ֛י וְ יוֹאָ֥ב וַ עֲשָׂה ־ אֵ֖ל שְׁלֹשָֽׁה ׃
-וַ אֲבִיגַ֕יִל יָלְדָ֖ה אֶת ־ עֲמָשָׂ֑א
-וַ אֲבִ֣י עֲמָשָׂ֔א יֶ֖תֶר הַ יִּשְׁמְעֵאלִֽי ׃
-וְ כָלֵ֣ב בֶּן ־ חֶצְר֗וֹן הוֹלִ֛יד אֶת ־ עֲזוּבָ֥ה אִשָּׁ֖ה וְ אֶת ־ יְרִיע֑וֹת</t>
+          <t>מִן־ הָאָ֥רֶץ הַהִ֖וא יָצָ֣א אַשּׁ֑וּר
+וַיִּ֙בֶן֙ אֶת־ נִ֣ינְוֵ֔ה וְאֶת־ רְחֹבֹ֥ת עִ֖יר וְאֶת־ כָּֽלַח׃
+וְֽאֶת־ רֶ֔סֶן בֵּ֥ין נִֽינְוֵ֖ה וּבֵ֣ין כָּ֑לַח
+הִ֖וא הָעִ֥יר הַגְּדֹלָֽה׃</t>
         </is>
       </c>
       <c r="H19" t="inlineStr">
         <is>
-          <t>of Zeruiah Abshai and/ Joab and/ Asah- -el three
-and/ Abigail she bore &lt;obj.&gt; Amasa and/
-[the] father of Amasa Jether the/ Ishmaelite
-and/ Caleb [the] son of Hezron he fathered with Azubah a wife</t>
+          <t>from the/ land &lt;the&gt;/ that he went forth Assyria and/
+he built &lt;obj.&gt; Nineveh and/ &lt;obj.&gt; Rehoboth-Ir and/ &lt;obj.&gt; Calah
+and/ &lt;obj.&gt; Resen between Nineveh and/ between
+Calah that [is] the/ city &lt;the&gt;/ great</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
-        <v>3586</v>
+        <v>3104</v>
       </c>
       <c r="B20" t="n">
         <v>4</v>
@@ -1258,41 +1255,41 @@
         <v>3.5</v>
       </c>
       <c r="D20" t="n">
-        <v>55.62420097192973</v>
+        <v>57.47587075927387</v>
       </c>
       <c r="E20" t="inlineStr">
         <is>
-          <t>(array([0.85344945, 0.00830661]), np.float64(0.0035572789067739308))</t>
+          <t>(array([-0.00173724,  0.6058067 ]), np.float64(-0.0012340386894496014))</t>
         </is>
       </c>
       <c r="F20" t="inlineStr">
         <is>
-          <t>Job.39.1
-Job.39.1
-Job.39.2
-Job.39.2</t>
+          <t>2Ch.35.13
+2Ch.35.14
+2Ch.35.14
+2Ch.35.15</t>
         </is>
       </c>
       <c r="G20" t="inlineStr">
         <is>
-          <t>הֲ יָדַ֗עְתָּ עֵ֭ת לֶ֣דֶת יַעֲלֵי ־ סָ֑לַע
-חֹלֵ֖ל אַיָּל֣וֹת תִּשְׁמֹֽר ׃
-תִּסְפֹּ֣ר יְרָחִ֣ים תְּמַלֶּ֑אנָה
-וְ֝ יָדַ֗עְתָּ עֵ֣ת לִדְתָּֽ נָה ׃</t>
+          <t>וְהַקֳּדָשִׁ֣ים בִּשְּׁל֗וּ בַּסִּיר֤וֹת וּבַדְּוָדִים֙ וּבַצֵּ֣לָח֔וֹת וַיָּרִ֖יצוּ לְכָל־ בְּנֵ֥י הָעָֽם׃
+וְאַחַ֗ר הֵכִ֤ינוּ לָהֶם֙ וְלַכֹּ֣הֲנִ֔ים כִּ֤י הַכֹּהֲנִים֙ בְּנֵ֣י אַהֲרֹ֔ן בְּהַֽעֲל֛וֹת הָעוֹלָ֥ה וְהַחֲלָבִ֖ים עַד־ לָ֑יְלָה
+וְהַלְוִיִּם֙ הֵכִ֣ינוּ לָהֶ֔ם וְלַכֹּהֲנִ֖ים בְּנֵ֥י אַהֲרֹֽן׃
+וְהַמְשֹֽׁרֲרִ֨ים בְּנֵי־ אָסָ֜ף עַל־ מַעֲמָדָ֗ם כְּמִצְוַ֤ת דָּוִיד֙ וְאָסָ֞ף וְהֵימָ֤ן וִֽידֻתוּן֙ חוֹזֵ֣ה הַמֶּ֔לֶךְ וְהַשֹּׁעֲרִ֖ים לְשַׁ֣עַר וָשָׁ֑עַר</t>
         </is>
       </c>
       <c r="H20" t="inlineStr">
         <is>
-          <t>¿/ do you know [the] time of [the] bringing forth of
-mountain goats of rock [the] giving birth of does do you watch?
-will you count? [the] months [which] they complete and/
-do you know? [the] time of bringing forth/ they</t>
+          <t>pots and/ in &lt;the&gt;/ kettles and/ in &lt;the&gt;/ pans and/ they brought [them] quicklyto/ all [the] children of the/ people
+and/ after they prepared for/ themselves and/ for the/ priests for the/ priests [the] descendants of Aaron [were] in/ offering up
+the/ burnt offering[s]and/ the/ fat&lt;s&gt; until night and/ the/ Levites they prepared for/ themselves and/ for the/ priests [the] descendants of Aaron
+and/ the/ singers [the] descendants of Asaph [were] at post/ their according to/ [the] command of David and/ Asaph and/ Heman and/ Jeduthun[the] seer of the/ king and/</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
-        <v>159</v>
+        <v>3699</v>
       </c>
       <c r="B21" t="n">
         <v>4</v>
@@ -1301,41 +1298,41 @@
         <v>3.5</v>
       </c>
       <c r="D21" t="n">
-        <v>65.82375730733962</v>
+        <v>93.20995255082688</v>
       </c>
       <c r="E21" t="inlineStr">
         <is>
-          <t>(array([0.95681428, 0.05354861]), np.float64(-0.0005166070288176172))</t>
+          <t>(array([ 1.00000000e+00, -2.31100704e-04]), np.float64(0.008042105072594063))</t>
         </is>
       </c>
       <c r="F21" t="inlineStr">
         <is>
-          <t>Gen.18.23
-Gen.18.24
-Gen.18.24
-Gen.18.25</t>
+          <t>Pro.3.12
+Pro.3.13
+Pro.3.13
+Pro.3.14</t>
         </is>
       </c>
       <c r="G21" t="inlineStr">
         <is>
-          <t>הַ אַ֣ף תִּסְפֶּ֔ה צַדִּ֖יק עִם ־ רָשָֽׁע ׃
-אוּלַ֥י יֵ֛שׁ חֲמִשִּׁ֥ים צַדִּיקִ֖ם בְּ ת֣וֹךְ הָ עִ֑יר
-הַ אַ֤ף תִּסְפֶּה֙ וְ לֹא ־ תִשָּׂ֣א לַ מָּק֔וֹם לְמַ֛עַן חֲמִשִּׁ֥ים הַ צַּדִּיקִ֖ם אֲשֶׁ֥ר בְּ קִרְבָּֽ הּ ׃
-חָלִ֨לָה לְּ ךָ֜ מֵ עֲשֹׂ֣ת ׀ כַּ דָּבָ֣ר הַ זֶּ֗ה לְ הָמִ֤ית צַדִּיק֙ עִם ־ רָשָׁ֔ע וְ הָיָ֥ה כַ צַּדִּ֖יק כָּ רָשָׁ֑ע</t>
+          <t>וּ֝כְאָ֗ב אֶת־ בֵּ֥ן יִרְצֶֽה׃
+אַשְׁרֵ֣י אָ֭דָם מָצָ֣א חָכְמָ֑ה
+וְ֝אָדָ֗ם יָפִ֥יק תְּבוּנָֽה׃
+כִּ֤י ט֣וֹב סַ֭חְרָהּ מִסְּחַר־ כָּ֑סֶף</t>
         </is>
       </c>
       <c r="H21" t="inlineStr">
         <is>
-          <t>also will you sweep away [the] righteous with [the] wicked
-perhaps there [are] fifty righteous [people] in/ [the] midst of the/ city ¿/ also will you sweep [it] away and/
-not will you forgive? &lt;to&gt; the/ place for [the] sake of fifty the/ righteous [people] who [are] in/ midst/ its
-far be it to &lt;the&gt;/ you from/ doing according to the/ manner &lt;the&gt;/ this to/ put to death [the] righteous with [the] wicked and/ it will</t>
+          <t>like/ a father &lt;obj.&gt; a son [whom] he is pleased with
+how blessed! [is] a person [who] he finds
+wisdom and/ a person [who] he obtains understanding
+for [is] good profit/ her more than/ [the]</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
-        <v>2437</v>
+        <v>3466</v>
       </c>
       <c r="B22" t="n">
         <v>4</v>
@@ -1344,41 +1341,41 @@
         <v>3.5</v>
       </c>
       <c r="D22" t="n">
-        <v>43.26671560106154</v>
+        <v>90.3640843878741</v>
       </c>
       <c r="E22" t="inlineStr">
         <is>
-          <t>(array([ 0.70302225, -0.00237008]), np.float64(0.0179649878278203))</t>
+          <t>(array([ 1.     , -0.00115]), np.float64(0.022600688583592765))</t>
         </is>
       </c>
       <c r="F22" t="inlineStr">
         <is>
-          <t>2Sa.14.15
-2Sa.14.16
-2Sa.14.16
-2Sa.14.17</t>
+          <t>Psa.35.16
+Psa.35.16
+Psa.35.17
+Psa.35.17</t>
         </is>
       </c>
       <c r="G22" t="inlineStr">
         <is>
-          <t>וַ תֹּ֤אמֶר שִׁפְחָֽתְ ךָ֙ אֲדַבְּרָה ־ נָּ֣א אֶל ־ הַ מֶּ֔לֶךְ אוּלַ֛י יַעֲשֶׂ֥ה הַ מֶּ֖לֶךְ אֶת ־ דְּבַ֥ר אֲמָתֽ וֹ ׃
-כִּ֚י יִשְׁמַ֣ע הַ מֶּ֔לֶךְ לְ הַצִּ֥יל אֶת ־ אֲמָת֖ וֹ מִ כַּ֣ף הָ אִ֑ישׁ
-לְ הַשְׁמִ֨יד אֹתִ֤ י וְ אֶת ־ בְּנִ י֙ יַ֔חַד מִֽ נַּחֲלַ֖ת אֱלֹהִֽים ׃
-וַ תֹּ֙אמֶר֙ שִׁפְחָ֣תְ ךָ֔ יִֽהְיֶה ־ נָּ֛א דְּבַר ־ אֲדֹנִ֥ י הַ מֶּ֖לֶךְ לִ מְנוּחָ֑ה</t>
+          <t>בְּ֭חַנְפֵי לַעֲגֵ֣י מָע֑וֹג
+חָרֹ֖ק עָלַ֣י שִׁנֵּֽימוֹ׃
+אֲדֹנָי֮ כַּמָּ֪ה תִּ֫רְאֶ֥ה הָשִׁ֣יבָה נַ֭פְשִׁי מִשֹּׁאֵיהֶ֑ם
+מִ֝כְּפִירִ֗ים יְחִידָתִֽי׃</t>
         </is>
       </c>
       <c r="H22" t="inlineStr">
         <is>
-          <t>people and/ she said maidservant/ your let me speak please to the/ king perhaps he will do the/ king &lt;obj.&gt; [the] word of maidservant/ his
-for he will hear the/ king to/ deliver &lt;obj.&gt; maidservant/ his from/ [the] hand of
-the/ man to/ destroy &lt;obj.&gt;/ me and/ &lt;obj.&gt; son/ my together from/ [the] inheritance of God
-and/ she said maidservant/ your may it become please [the] word of lord/ my the/ king &lt;into&gt;/ rest for like/ [the] angel of</t>
+          <t>&lt;in&gt;/ godless [ones] of mockers of
+cake they gnashed towards/ me teeth/ their
+O Lord how/ long? will you look bring back/ !
+life/ my from/ ravages/ their from/ young lions only [life]/ my</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
-        <v>1081</v>
+        <v>3775</v>
       </c>
       <c r="B23" t="n">
         <v>4</v>
@@ -1387,41 +1384,41 @@
         <v>3.5</v>
       </c>
       <c r="D23" t="n">
-        <v>58.69810679316518</v>
+        <v>92.39477496170822</v>
       </c>
       <c r="E23" t="inlineStr">
         <is>
-          <t>(array([0.89910318, 0.00186887]), np.float64(-0.0004558003148646961))</t>
+          <t>(array([1.00000000e+00, 5.39923727e-05]), np.float64(0.012486453884152926))</t>
         </is>
       </c>
       <c r="F23" t="inlineStr">
         <is>
-          <t>Lev.25.4
-Lev.25.4
-Lev.25.5
-Lev.25.5</t>
+          <t>Pro.31.10
+Pro.31.11
+Pro.31.11
+Pro.31.12</t>
         </is>
       </c>
       <c r="G23" t="inlineStr">
         <is>
-          <t>וּ בַ שָּׁנָ֣ה הַ שְּׁבִיעִ֗ת שַׁבַּ֤ת שַׁבָּתוֹן֙ יִהְיֶ֣ה לָ אָ֔רֶץ שַׁבָּ֖ת לַ יהוָ֑ה
-שָֽׂדְ ךָ֙ לֹ֣א תִזְרָ֔ע וְ כַרְמְ ךָ֖ לֹ֥א תִזְמֹֽר ׃
-אֵ֣ת סְפִ֤יחַ קְצִֽירְ ךָ֙ לֹ֣א תִקְצ֔וֹר וְ אֶת ־ עִנְּבֵ֥י נְזִירֶ֖ ךָ לֹ֣א תִבְצֹ֑ר
-שְׁנַ֥ת שַׁבָּת֖וֹן יִהְיֶ֥ה לָ אָֽרֶץ ׃</t>
+          <t>וְרָחֹ֖ק מִפְּנִינִ֣ים מִכְרָֽהּ׃
+בָּ֣טַח בָּ֭הּ לֵ֣ב בַּעְלָ֑הּ
+וְ֝שָׁלָ֗ל לֹ֣א יֶחְסָֽר׃
+גְּמָלַ֣תְהוּ ט֣וֹב וְלֹא־ רָ֑ע</t>
         </is>
       </c>
       <c r="H23" t="inlineStr">
         <is>
-          <t>and/ in the/ year &lt;the&gt;/ seventh a sabbath of sabbath observance it will belong to the/ land
-a sabbath to/ Yahweh field/ your not you will sow and/ vineyard/ your not you will prune
-&lt;obj.&gt; [the] self-sown grain of harvest/ your not you will harvest and/ &lt;obj.&gt; [the] grapes untrimmed vines/
-your not you will gather grapes a year of sabbath observance it will belong to the/ land</t>
+          <t>and/ [is] far more than/ jewels price/ her
+it trusts in/ her [the] heart of
+husband/ her and/ gain not he lacks
+she feeds/ him good and/ not</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
-        <v>3767</v>
+        <v>4415</v>
       </c>
       <c r="B24" t="n">
         <v>4</v>
@@ -1430,41 +1427,41 @@
         <v>3.5</v>
       </c>
       <c r="D24" t="n">
-        <v>64.21226552397187</v>
+        <v>72.58864752828302</v>
       </c>
       <c r="E24" t="inlineStr">
         <is>
-          <t>(array([1.15450155e-04, 9.86058802e-01]), np.float64(-0.00022760471433247442))</t>
+          <t>(array([ 0.76581215, -0.00084271]), np.float64(-0.0005362080316865248))</t>
         </is>
       </c>
       <c r="F24" t="inlineStr">
         <is>
-          <t>Psa.115.8
-Psa.115.8
-Psa.115.9
-Psa.115.9</t>
+          <t>Ezk.18.19
+Ezk.18.19
+Ezk.18.20
+Ezk.18.20</t>
         </is>
       </c>
       <c r="G24" t="inlineStr">
         <is>
-          <t>כְּ֭מוֹ הֶם יִהְי֣וּ עֹשֵׂי הֶ֑ם
-כֹּ֭ל אֲשֶׁר ־ בֹּטֵ֣חַ בָּ הֶֽם ׃
-יִ֭שְׂרָאֵל בְּטַ֣ח בַּ יהוָ֑ה
-עֶזְרָ֖ ם וּ מָגִנָּ֣ ם הֽוּא ׃</t>
+          <t>וַאֲמַרְתֶּ֕ם מַדֻּ֛עַ לֹא־ נָשָׂ֥א הַבֵּ֖ן בַּעֲוֹ֣ן הָאָ֑ב
+וְהַבֵּ֞ן מִשְׁפָּ֧ט וּצְדָקָ֣ה עָשָׂ֗ה אֵ֣ת כָּל־ חֻקּוֹתַ֥י שָׁמַ֛ר וַיַּעֲשֶׂ֥ה אֹתָ֖ם חָיֹ֥ה יִחְיֶֽה׃
+הַנֶּ֥פֶשׁ הַחֹטֵ֖את הִ֣יא תָמ֑וּת
+בֵּ֞ן לֹא־ יִשָּׂ֣א׀ בַּעֲוֹ֣ן הָאָ֗ב וְאָב֙ לֹ֤א יִשָּׂא֙ בַּעֲוֹ֣ן הַבֵּ֔ן צִדְקַ֤ת הַצַּדִּיק֙ עָלָ֣יו תִּֽהְיֶ֔ה וְרִשְׁעַ֥ת רָשָׁע הָרָשָׁ֖ע עָלָ֥יו תִּֽהְיֶֽה׃ס</t>
         </is>
       </c>
       <c r="H24" t="inlineStr">
         <is>
-          <t>like/ them they will be [those who] make/
-them every [one] who [is] trusting in/ them
-O Israel trust in/ Yahweh [is]
-help/ their and/ shield/ their he</t>
+          <t>and/ you say why? not has he borne the/ child in/ [the] iniquity of the/ parent and/ the/ child justice and/
+righteousnesshe has done &lt;obj.&gt; all statutes/ my he has kept and/ he has done &lt;obj.&gt;/ them certainly &lt;live&gt; he will live
+the/ soul which/ sins it it will die a child not he will bear in/ [the] iniquity of the/ parent and/ a parentnot he will bear in/
+[the] iniquity of the/ child [the] righteousness of the/ righteous [person] on/ him it will be and/ [the] wickedness of the/ wicked [person]on/ him it will be</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
-        <v>1668</v>
+        <v>3942</v>
       </c>
       <c r="B25" t="n">
         <v>4</v>
@@ -1473,41 +1470,41 @@
         <v>3.5</v>
       </c>
       <c r="D25" t="n">
-        <v>52.43198266101726</v>
+        <v>81.38907575673494</v>
       </c>
       <c r="E25" t="inlineStr">
         <is>
-          <t>(array([-0.0012858 ,  0.80567171]), np.float64(-0.0005975672067632942))</t>
+          <t>(array([ 0.85895885, -0.00169498]), np.float64(-0.0008300452359641941))</t>
         </is>
       </c>
       <c r="F25" t="inlineStr">
         <is>
-          <t>Deu.31.18
-Deu.31.19
-Deu.31.19
-Deu.31.20</t>
+          <t>Isa.38.15
+Isa.38.16
+Isa.38.16
+Isa.38.17</t>
         </is>
       </c>
       <c r="G25" t="inlineStr">
         <is>
-          <t>כִּ֣י פָנָ֔ה אֶל ־ אֱלֹהִ֖ים אֲחֵרִֽים ׃
-וְ עַתָּ֗ה כִּתְב֤וּ לָ כֶם֙ אֶת ־ הַ שִּׁירָ֣ה הַ זֹּ֔את וְ לַמְּדָ֥ הּ אֶת ־ בְּנֵי ־ יִשְׂרָאֵ֖ל שִׂימָ֣ הּ בְּ פִי הֶ֑ם
-לְמַ֨עַן תִּהְיֶה ־ לִּ֜ י הַ שִּׁירָ֥ה הַ זֹּ֛את לְ עֵ֖ד בִּ בְנֵ֥י יִשְׂרָאֵֽל ׃
-כִּֽי ־ אֲבִיאֶ֜ נּוּ אֶֽל ־ הָ אֲדָמָ֣ה ׀ אֲשֶׁר ־ נִשְׁבַּ֣עְתִּי לַ אֲבֹתָ֗י ו זָבַ֤ת חָלָב֙ וּ דְבַ֔שׁ וְ אָכַ֥ל וְ שָׂבַ֖ע וְ דָשֵׁ֑ן</t>
+          <t>אֶדַּדֶּ֥ה כָל־ שְׁנוֹתַ֖י עַל־ מַ֥ר נַפְשִֽׁי׃
+אֲדֹנָ֖י עֲלֵיהֶ֣ם יִֽחְי֑וּ
+וּלְכָל־ בָּהֶן֙ חַיֵּ֣י רוּחִ֔י וְתַחֲלִימֵ֖נִי וְהַחֲיֵֽנִי׃
+הִנֵּ֥ה לְשָׁל֖וֹם מַר־ לִ֣י מָ֑ר</t>
         </is>
       </c>
       <c r="H25" t="inlineStr">
         <is>
-          <t>on all the/ evil which it has done for it has turned to gods other
-and/ therefore write down for &lt;the&gt;/ yourselves &lt;obj.&gt; the/ song &lt;the&gt;/ this and/ teach/ it &lt;obj.&gt; [the] people of Israel put/ it
-in/ mouth/ their so that it may become for &lt;the&gt;/ me the/ song &lt;the&gt;/ this &lt;into&gt;/ a witness on/ [the] people of Israel
-if I will bring/ it into the/ land which I swore to/ ancestors/ its flowing of milk and/ honey and/ it will eat and/ it will be satisfied</t>
+          <t>has acted I will walk deliberately all years/ my on[the] bitterness of self/ my
+O Lord on/ them people live and/ to/ all in/ them [the] life
+of spirit/ my and/ may you restore to health/ me and/ preserve alive/ me
+here! for/ welfare it was bitter to/ me bitterly and/ you you loved life/</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
-        <v>4265</v>
+        <v>3371</v>
       </c>
       <c r="B26" t="n">
         <v>4</v>
@@ -1516,35 +1513,35 @@
         <v>3.5</v>
       </c>
       <c r="D26" t="n">
-        <v>95.56543351946409</v>
+        <v>69.80408626968799</v>
       </c>
       <c r="E26" t="inlineStr">
         <is>
-          <t>(array([0.74516333, 0.7223263 ]), np.float64(-0.0004996805582908603))</t>
+          <t>(array([-1.19199481e-04,  7.36704605e-01]), np.float64(-3.372311630767122e-05))</t>
         </is>
       </c>
       <c r="F26" t="inlineStr">
         <is>
-          <t>Jer.35.3
-Jer.35.4
-Jer.35.4
-Jer.35.5</t>
+          <t>Job.27.16
+Job.27.16
+Job.27.17
+Job.27.17</t>
         </is>
       </c>
       <c r="G26" t="inlineStr">
         <is>
-          <t>ו וְ אֵ֖ת כָּל ־ בֵּ֥ית הָ רֵכָבִֽים ׃
-וָ אָבִ֤א אֹתָ ם֙ בֵּ֣ית יְהוָ֔ה אֶל ־ לִשְׁכַּ֗ת בְּנֵ֛י חָנָ֥ן בֶּן ־ יִגְדַּלְיָ֖הוּ אִ֣ישׁ הָ אֱלֹהִ֑ים
-אֲשֶׁר ־ אֵ֙צֶל֙ לִשְׁכַּ֣ת הַ שָּׂרִ֔ים אֲשֶׁ֣ר מִ מַּ֗עַל לְ לִשְׁכַּ֛ת מַעֲשֵׂיָ֥הוּ בֶן ־ שַׁלֻּ֖ם שֹׁמֵ֥ר הַ סַּֽף ׃
-וָ אֶתֵּ֞ן לִ פְנֵ֣י ׀ בְּנֵ֣י בֵית ־ הָ רֵכָבִ֗ים גְּבִעִ֛ים מְלֵאִ֥ים יַ֖יִן וְ כֹס֑וֹת</t>
+          <t>אִם־ יִצְבֹּ֣ר כֶּעָפָ֣ר כָּ֑סֶף
+וְ֝כַחֹ֗מֶר יָכִ֥ין מַלְבּֽוּשׁ׃
+יָ֭כִין וְצַדִּ֣יק יִלְבָּ֑שׁ
+וְ֝כֶ֗סֶף נָקִ֥י יַחֲלֹֽק׃</t>
         </is>
       </c>
       <c r="H26" t="inlineStr">
         <is>
-          <t>brothers/ his and/ &lt;obj.&gt; all children/ his and/ &lt;obj.&gt; all [the] house of the/ Rechabites
-and/ I brought &lt;obj.&gt;/ them [the] house of Yahweh to [the] room of [the] sons of Hanan [the] son Igdaliah [the] man of &lt;the&gt;/ God
-which [was] beside [the] room of the/ officials which [was] from/ above &lt;to&gt;/ [the] room of Maaseiah [the] son of Shallum [the] keeper of the/ threshold
-and/ I put &lt;to&gt;/ before [the] sons of [the] house of the/</t>
+          <t>if he will heap up like &lt;the&gt;/ dust
+silver and/ like &lt;the&gt;/ clay he will prepare clothing
+he will prepare [it] and/ a righteous [person] he will
+wear [it] and/ [the] silver [the] innocent he will divide up</t>
         </is>
       </c>
     </row>
